--- a/data/trans_orig/P23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>113203</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96619</v>
+        <v>97892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130125</v>
+        <v>130056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4146491528948244</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3539012538081085</v>
+        <v>0.3585663067835477</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4766295666293772</v>
+        <v>0.47637932045644</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>159</v>
@@ -764,19 +764,19 @@
         <v>168453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>151224</v>
+        <v>152006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>182583</v>
+        <v>184106</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6458163650152129</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5797621314457271</v>
+        <v>0.582759634538102</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6999876855211248</v>
+        <v>0.7058249177493238</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>271</v>
@@ -785,19 +785,19 @@
         <v>281657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>256825</v>
+        <v>258645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>305289</v>
+        <v>303403</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5275974281177072</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4810829359980756</v>
+        <v>0.4844916396480286</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5718646375861879</v>
+        <v>0.5683323440987799</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>46449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35432</v>
+        <v>35125</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60140</v>
+        <v>60063</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1701363695129751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1297843949678099</v>
+        <v>0.128657711961924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2202836707182487</v>
+        <v>0.2200031965317175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -835,19 +835,19 @@
         <v>20073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12373</v>
+        <v>12441</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29578</v>
+        <v>30395</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07695545285065743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04743550530512536</v>
+        <v>0.0476951417628478</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1133961045430708</v>
+        <v>0.1165290862953167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -856,19 +856,19 @@
         <v>66522</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52476</v>
+        <v>52741</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>82513</v>
+        <v>80856</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1246081835554662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09829805958955659</v>
+        <v>0.0987949395100088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.154563045783786</v>
+        <v>0.1514597301124062</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>5265</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1935</v>
+        <v>1920</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12593</v>
+        <v>11168</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01928404030572368</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007088739389019853</v>
+        <v>0.00703116689527282</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04612505165322904</v>
+        <v>0.04090767464752</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -906,19 +906,19 @@
         <v>7041</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3098</v>
+        <v>3121</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13590</v>
+        <v>13968</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02699472778333907</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01187522050473241</v>
+        <v>0.01196336461034102</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05210129009248495</v>
+        <v>0.05355016084540994</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -927,19 +927,19 @@
         <v>12306</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6639</v>
+        <v>6792</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21529</v>
+        <v>20977</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02305148138610399</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01243682201436908</v>
+        <v>0.01272360112818325</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04032808224997454</v>
+        <v>0.03929353183791977</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>108093</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>91062</v>
+        <v>93215</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>124785</v>
+        <v>124026</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3959304372864769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.333546461085271</v>
+        <v>0.3414357497365941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4570698486619634</v>
+        <v>0.4542912385110579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -977,19 +977,19 @@
         <v>65270</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51253</v>
+        <v>50750</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80500</v>
+        <v>81239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2502334543507906</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.196495367623182</v>
+        <v>0.1945658047224334</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3086213367302045</v>
+        <v>0.3114536895747461</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>165</v>
@@ -998,19 +998,19 @@
         <v>173363</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149268</v>
+        <v>153391</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>194982</v>
+        <v>194848</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3247429069407227</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.27960732342199</v>
+        <v>0.2873304861206535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3652381337600971</v>
+        <v>0.3649873750591828</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>186698</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>166459</v>
+        <v>163811</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>211778</v>
+        <v>207505</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.379442602161139</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3383083315582425</v>
+        <v>0.3329267422620847</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4304138048733519</v>
+        <v>0.4217301122980244</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>356</v>
@@ -1123,19 +1123,19 @@
         <v>359439</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>338467</v>
+        <v>339238</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>378704</v>
+        <v>379522</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7132447327043413</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.671630222676327</v>
+        <v>0.6731586663439585</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7514725266439749</v>
+        <v>0.7530953033986938</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>533</v>
@@ -1144,19 +1144,19 @@
         <v>546137</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>511944</v>
+        <v>517638</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>577774</v>
+        <v>578401</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.548340522815597</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5140096938584244</v>
+        <v>0.5197260203014468</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5801044427651763</v>
+        <v>0.5807347133902858</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>113848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95840</v>
+        <v>96907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134417</v>
+        <v>133101</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2313834109778463</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1947832806178129</v>
+        <v>0.1969531703666715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2731874014270194</v>
+        <v>0.270512099378294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1194,19 +1194,19 @@
         <v>25854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17326</v>
+        <v>17115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37112</v>
+        <v>36737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05130218652209818</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03438137041527441</v>
+        <v>0.03396128256905728</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07364234975834388</v>
+        <v>0.0728987548873615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -1215,19 +1215,19 @@
         <v>139702</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117136</v>
+        <v>119816</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>162179</v>
+        <v>163624</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1402655253310737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1176088125007416</v>
+        <v>0.1202997747046765</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1628327861298763</v>
+        <v>0.1642842181138001</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>13880</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7279</v>
+        <v>7718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22782</v>
+        <v>23439</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02820966662886111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01479301629963313</v>
+        <v>0.01568593464741708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04630122688503847</v>
+        <v>0.04763698570394841</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1265,19 +1265,19 @@
         <v>7190</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3086</v>
+        <v>2968</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14130</v>
+        <v>14912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0142666909043558</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006124588445532852</v>
+        <v>0.005889822106609436</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02803923244750651</v>
+        <v>0.02959065794660742</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1286,19 +1286,19 @@
         <v>21070</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13555</v>
+        <v>12760</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32714</v>
+        <v>30610</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02115476975396011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01360973315986969</v>
+        <v>0.01281195961838018</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03284642252683412</v>
+        <v>0.030733213901622</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>177606</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>156269</v>
+        <v>156575</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>198735</v>
+        <v>202324</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3609643202321535</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3175996132497607</v>
+        <v>0.3182212952312525</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4039063408639342</v>
+        <v>0.4112000708828674</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>110</v>
@@ -1336,19 +1336,19 @@
         <v>111467</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>92899</v>
+        <v>94373</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>129936</v>
+        <v>130522</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2211863898692047</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1843412316599527</v>
+        <v>0.187267826411766</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2578360052041729</v>
+        <v>0.2589978863419859</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>276</v>
@@ -1357,19 +1357,19 @@
         <v>289073</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>262503</v>
+        <v>260585</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>319238</v>
+        <v>316260</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2902391820993692</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2635617218997614</v>
+        <v>0.2616365220663785</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3205262653274293</v>
+        <v>0.3175354221926566</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>106078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88571</v>
+        <v>89527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123546</v>
+        <v>123582</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3326927496669385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2777872471398531</v>
+        <v>0.2807832439410115</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3874792491866118</v>
+        <v>0.3875910710200745</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>226</v>
@@ -1482,19 +1482,19 @@
         <v>226287</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>208693</v>
+        <v>208505</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241226</v>
+        <v>243082</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6746536501363826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.622197665059974</v>
+        <v>0.621637058273013</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7191916782709041</v>
+        <v>0.7247258877027153</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>329</v>
@@ -1503,19 +1503,19 @@
         <v>332365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>307265</v>
+        <v>304946</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>356283</v>
+        <v>353948</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5080024980853207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4696390504259205</v>
+        <v>0.4660948258240581</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5445611653285289</v>
+        <v>0.5409915735341663</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>64929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>50777</v>
+        <v>51533</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>79702</v>
+        <v>80708</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2036371631762318</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1592523367713641</v>
+        <v>0.1616233151125283</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2499716087630426</v>
+        <v>0.2531247101106328</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -1553,19 +1553,19 @@
         <v>14236</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8268</v>
+        <v>8307</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22652</v>
+        <v>23389</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04244353717547599</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02465008308583381</v>
+        <v>0.02476649722564848</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06753456613113874</v>
+        <v>0.06973154993063627</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>78</v>
@@ -1574,19 +1574,19 @@
         <v>79165</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>63414</v>
+        <v>63644</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>96851</v>
+        <v>96443</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1209996043733231</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0969252277319532</v>
+        <v>0.09727653066828697</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1480325727956793</v>
+        <v>0.1474075133256068</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>6803</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2964</v>
+        <v>2899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13526</v>
+        <v>13775</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02133595286405957</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009295358459844891</v>
+        <v>0.009092172789699086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04242166086851509</v>
+        <v>0.04320361740186344</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1624,19 +1624,19 @@
         <v>18582</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11700</v>
+        <v>11453</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28432</v>
+        <v>29158</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05540117760501494</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03488285191486454</v>
+        <v>0.0341470964727066</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08476621227590338</v>
+        <v>0.08693044797965596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1645,19 +1645,19 @@
         <v>25385</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16493</v>
+        <v>16521</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36007</v>
+        <v>35317</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03879983827012271</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02520943246285861</v>
+        <v>0.02525099458160921</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05503459352783485</v>
+        <v>0.05398065716057462</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>141036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123254</v>
+        <v>122852</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>158895</v>
+        <v>158549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4423341342927701</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3865620968036523</v>
+        <v>0.3853018238295864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4983449802734011</v>
+        <v>0.4972601540290167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -1695,19 +1695,19 @@
         <v>76307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62473</v>
+        <v>61449</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92486</v>
+        <v>91976</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2275016350831265</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.186258096452786</v>
+        <v>0.1832052988544267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2757385400186899</v>
+        <v>0.2742176079764434</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>212</v>
@@ -1716,19 +1716,19 @@
         <v>217343</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>194118</v>
+        <v>194440</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>240788</v>
+        <v>242996</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3321980592712335</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2966996786974426</v>
+        <v>0.2971916035263165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3680327768502258</v>
+        <v>0.371406814502146</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>112304</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>95735</v>
+        <v>95405</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129986</v>
+        <v>130879</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.313110849456376</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2669148978104026</v>
+        <v>0.2659970880542289</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3624094228187288</v>
+        <v>0.3649000407052725</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>238</v>
@@ -1841,19 +1841,19 @@
         <v>227402</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>206948</v>
+        <v>209465</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243926</v>
+        <v>245260</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6121902566843828</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5571266275075797</v>
+        <v>0.5639031371858158</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6566752922364792</v>
+        <v>0.6602663600047217</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>353</v>
@@ -1862,19 +1862,19 @@
         <v>339706</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>310613</v>
+        <v>313112</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>366454</v>
+        <v>369158</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4652690604423608</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4254227017125523</v>
+        <v>0.4288452949827308</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5019049992179063</v>
+        <v>0.5056072871228275</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>75880</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61210</v>
+        <v>61546</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92270</v>
+        <v>91627</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2115582196921775</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1706577359864796</v>
+        <v>0.1715946535053142</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.25725428032138</v>
+        <v>0.2554637720246767</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -1912,19 +1912,19 @@
         <v>38835</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28744</v>
+        <v>28814</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50656</v>
+        <v>52894</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.10454878380309</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07738122905108566</v>
+        <v>0.07757035407747979</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.136371415445302</v>
+        <v>0.1423977315167559</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>116</v>
@@ -1933,19 +1933,19 @@
         <v>114715</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>96446</v>
+        <v>97638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136728</v>
+        <v>134641</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1571166101062325</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1320951300247028</v>
+        <v>0.1337276559754829</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1872665575996688</v>
+        <v>0.1844077146842025</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>14781</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8719</v>
+        <v>8434</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25632</v>
+        <v>24453</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04120994742798889</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02430918385749649</v>
+        <v>0.023514173008498</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07146279486838519</v>
+        <v>0.068177282815643</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1983,19 +1983,19 @@
         <v>11162</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5569</v>
+        <v>6142</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19265</v>
+        <v>19922</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03004862145613667</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01499217112845849</v>
+        <v>0.01653496620963018</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05186214064668778</v>
+        <v>0.05363344441616631</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -2004,19 +2004,19 @@
         <v>25943</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17275</v>
+        <v>16470</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37891</v>
+        <v>36635</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03553156452677586</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02366028578397903</v>
+        <v>0.02255712774075549</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05189615651164031</v>
+        <v>0.05017667468476027</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>155707</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138708</v>
+        <v>136649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>173549</v>
+        <v>173911</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4341209834234576</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3867290454250005</v>
+        <v>0.3809876572574692</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4838677782539724</v>
+        <v>0.4848765892486703</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>96</v>
@@ -2054,19 +2054,19 @@
         <v>94057</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78267</v>
+        <v>79780</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>112437</v>
+        <v>110204</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2532123380563906</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2107029940454407</v>
+        <v>0.2147766341362658</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3026929152271356</v>
+        <v>0.2966816791621495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>252</v>
@@ -2075,19 +2075,19 @@
         <v>249764</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>225818</v>
+        <v>224463</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>276994</v>
+        <v>274899</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3420827649246308</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3092857404814036</v>
+        <v>0.3074305585519023</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.379377525218457</v>
+        <v>0.3765091098375443</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>76163</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>62362</v>
+        <v>63332</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>88740</v>
+        <v>89518</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3746184905011348</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3067352107202055</v>
+        <v>0.3115092631656461</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4364823243435386</v>
+        <v>0.4403094753253395</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>114</v>
@@ -2200,19 +2200,19 @@
         <v>119114</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>105055</v>
+        <v>104891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>133508</v>
+        <v>133853</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5735787715427236</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5058800355782396</v>
+        <v>0.5050897998171491</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.642891894436858</v>
+        <v>0.6445525851505354</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>192</v>
@@ -2221,19 +2221,19 @@
         <v>195277</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>176525</v>
+        <v>175419</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>216420</v>
+        <v>216113</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.475153993836929</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.429526667119294</v>
+        <v>0.426835316375258</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5265999135637766</v>
+        <v>0.5258537614956246</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>42816</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31383</v>
+        <v>31781</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55131</v>
+        <v>55066</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.210597982710955</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1543609696342687</v>
+        <v>0.1563202607663071</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2711700917833618</v>
+        <v>0.2708510884062201</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -2271,19 +2271,19 @@
         <v>29028</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20330</v>
+        <v>19542</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41615</v>
+        <v>40398</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1397791284916505</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09789471672493258</v>
+        <v>0.09410087510887472</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2003910117571829</v>
+        <v>0.1945334573634293</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -2292,19 +2292,19 @@
         <v>71844</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55428</v>
+        <v>57902</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86677</v>
+        <v>90228</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1748129048183792</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1348691463129985</v>
+        <v>0.1408881825834163</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2109062338011783</v>
+        <v>0.2195446262221522</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>2621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7728</v>
+        <v>7977</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01289150878418015</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004037787726179132</v>
+        <v>0.004006329788151165</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03801034729943449</v>
+        <v>0.03923493217484336</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2345,16 +2345,16 @@
         <v>1011</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10001</v>
+        <v>9061</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01928078620231416</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004866089483800694</v>
+        <v>0.004869702356454965</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04816036449011096</v>
+        <v>0.04363158377388168</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2363,19 +2363,19 @@
         <v>6625</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2918</v>
+        <v>2815</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14129</v>
+        <v>13253</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0161200387089537</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007100114097014173</v>
+        <v>0.006848360288227774</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03437898413078123</v>
+        <v>0.03224779828386874</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>81708</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>68699</v>
+        <v>69448</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>96591</v>
+        <v>96130</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4018920180037301</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3379076495514581</v>
+        <v>0.3415904493610397</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4750990961107817</v>
+        <v>0.4728300959725199</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>53</v>
@@ -2413,19 +2413,19 @@
         <v>55522</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>42146</v>
+        <v>43670</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>68511</v>
+        <v>70426</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2673613137633117</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2029475498260086</v>
+        <v>0.2102889252423891</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3299052097371582</v>
+        <v>0.3391271099189047</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>136</v>
@@ -2434,19 +2434,19 @@
         <v>137230</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>119442</v>
+        <v>117914</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>156980</v>
+        <v>156583</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.333913062635738</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2906291162879603</v>
+        <v>0.2869112169426312</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3819678047475834</v>
+        <v>0.3810023501669366</v>
       </c>
     </row>
     <row r="28">
@@ -2538,19 +2538,19 @@
         <v>92613</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>76867</v>
+        <v>77555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>108045</v>
+        <v>109374</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3419842913486254</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2838408455934072</v>
+        <v>0.286378731951025</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3989684144348863</v>
+        <v>0.4038758195754913</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>188</v>
@@ -2559,19 +2559,19 @@
         <v>194325</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>178834</v>
+        <v>179266</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>209735</v>
+        <v>208313</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6986472406689028</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6429529876228444</v>
+        <v>0.6445067582790217</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7540503355543953</v>
+        <v>0.748940178507115</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>278</v>
@@ -2580,19 +2580,19 @@
         <v>286938</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>264752</v>
+        <v>265892</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>309291</v>
+        <v>311596</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5226979357335609</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4822832334146602</v>
+        <v>0.4843605968759547</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5634184842916208</v>
+        <v>0.5676166863287009</v>
       </c>
     </row>
     <row r="30">
@@ -2609,19 +2609,19 @@
         <v>52870</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41218</v>
+        <v>40687</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66560</v>
+        <v>66449</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1952285393365039</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1522037457370886</v>
+        <v>0.1502414244546668</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2457811961766373</v>
+        <v>0.2453720543158035</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -2630,19 +2630,19 @@
         <v>18812</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11501</v>
+        <v>11530</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>28963</v>
+        <v>28448</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06763398925450097</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04134804770575669</v>
+        <v>0.04145212906599155</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1041298550033339</v>
+        <v>0.1022792667370514</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>70</v>
@@ -2651,19 +2651,19 @@
         <v>71682</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>57080</v>
+        <v>57191</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>88683</v>
+        <v>88591</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1305790538967669</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.103980180704424</v>
+        <v>0.1041818457177896</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1615482814754731</v>
+        <v>0.1613812868564976</v>
       </c>
     </row>
     <row r="31">
@@ -2680,19 +2680,19 @@
         <v>7798</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3783</v>
+        <v>3840</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14688</v>
+        <v>14756</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02879421225551097</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01396742921913577</v>
+        <v>0.0141799080410713</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05423608168637569</v>
+        <v>0.05448671496014353</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2701,19 +2701,19 @@
         <v>8334</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4151</v>
+        <v>3850</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16484</v>
+        <v>14830</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02996386833177038</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01492411039459825</v>
+        <v>0.01384019703627423</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05926479638567363</v>
+        <v>0.0533171731355573</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>16</v>
@@ -2722,19 +2722,19 @@
         <v>16132</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9352</v>
+        <v>9597</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24897</v>
+        <v>24805</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02938685248523108</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01703662539839381</v>
+        <v>0.01748160805512135</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04535413128693556</v>
+        <v>0.04518589123163416</v>
       </c>
     </row>
     <row r="32">
@@ -2751,19 +2751,19 @@
         <v>117530</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>101319</v>
+        <v>100740</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>133498</v>
+        <v>135141</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4339929570593597</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.374133619536182</v>
+        <v>0.3719938212249285</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4929549494443837</v>
+        <v>0.4990217206259275</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>56</v>
@@ -2772,19 +2772,19 @@
         <v>56673</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43969</v>
+        <v>44108</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>70519</v>
+        <v>69946</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2037549017448258</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.158079035117558</v>
+        <v>0.1585784205176691</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2535323554426006</v>
+        <v>0.2514727656483365</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>172</v>
@@ -2793,19 +2793,19 @@
         <v>174203</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>152680</v>
+        <v>151686</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>197062</v>
+        <v>194905</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.317336157884441</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2781276637112394</v>
+        <v>0.2763180624889745</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3589766260753766</v>
+        <v>0.3550476809502712</v>
       </c>
     </row>
     <row r="33">
@@ -2897,19 +2897,19 @@
         <v>287891</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>262569</v>
+        <v>261787</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>312916</v>
+        <v>315384</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4680956939066711</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.426923509488191</v>
+        <v>0.4256519586071983</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5087847087395063</v>
+        <v>0.5127967160495617</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>430</v>
@@ -2918,19 +2918,19 @@
         <v>443996</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>420383</v>
+        <v>420547</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>467657</v>
+        <v>467208</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.695680337341427</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6586811887832101</v>
+        <v>0.6589382651124523</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7327530957369484</v>
+        <v>0.7320500089323774</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>705</v>
@@ -2939,19 +2939,19 @@
         <v>731888</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>692664</v>
+        <v>700230</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>764830</v>
+        <v>767152</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5839938075888462</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5526960442753287</v>
+        <v>0.5587326976095573</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6102788728277934</v>
+        <v>0.6121318494931164</v>
       </c>
     </row>
     <row r="35">
@@ -2968,19 +2968,19 @@
         <v>92160</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>73764</v>
+        <v>75110</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>109890</v>
+        <v>110546</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1498463951728819</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1199367231096172</v>
+        <v>0.1221254968214033</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1786748880368741</v>
+        <v>0.179741608507608</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -2989,19 +2989,19 @@
         <v>32870</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>23158</v>
+        <v>22669</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>45582</v>
+        <v>45396</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05150271461243993</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03628487753990628</v>
+        <v>0.03551869594362503</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07142026830315683</v>
+        <v>0.07112934267461452</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>126</v>
@@ -3010,19 +3010,19 @@
         <v>125030</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>107287</v>
+        <v>105083</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>150040</v>
+        <v>147300</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09976460187831294</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08560708281353596</v>
+        <v>0.08384859688340017</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1197213416961844</v>
+        <v>0.117534474854014</v>
       </c>
     </row>
     <row r="36">
@@ -3039,19 +3039,19 @@
         <v>9422</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4757</v>
+        <v>4898</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17239</v>
+        <v>16716</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01532016389778735</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.007733881071654037</v>
+        <v>0.007964491195875414</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0280302550183351</v>
+        <v>0.02717886730698957</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>11</v>
@@ -3060,19 +3060,19 @@
         <v>10645</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5461</v>
+        <v>5481</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>18342</v>
+        <v>17963</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0166787267455638</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.008556563056439792</v>
+        <v>0.008587369792673154</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02874010254750328</v>
+        <v>0.02814503203734987</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -3081,19 +3081,19 @@
         <v>20067</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>12120</v>
+        <v>12307</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>29677</v>
+        <v>30303</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01601201581274801</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009671155901183495</v>
+        <v>0.009819734684146389</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02367977631131205</v>
+        <v>0.02417959292057713</v>
       </c>
     </row>
     <row r="37">
@@ -3110,19 +3110,19 @@
         <v>225554</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>201604</v>
+        <v>201417</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>249862</v>
+        <v>249860</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3667377470226596</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3277973399628694</v>
+        <v>0.3274928908741012</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4062619675352087</v>
+        <v>0.4062579969664101</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>147</v>
@@ -3131,19 +3131,19 @@
         <v>150708</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>129735</v>
+        <v>129110</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>172887</v>
+        <v>172982</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2361382213005693</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2032769544300353</v>
+        <v>0.2022978190092738</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2708892422141759</v>
+        <v>0.2710392297302764</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>367</v>
@@ -3152,19 +3152,19 @@
         <v>376262</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>344877</v>
+        <v>343816</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>411804</v>
+        <v>405847</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3002295747200928</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2751867905038931</v>
+        <v>0.2743401273231829</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3285897739099242</v>
+        <v>0.3238365116343222</v>
       </c>
     </row>
     <row r="38">
@@ -3256,19 +3256,19 @@
         <v>285716</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>261191</v>
+        <v>259551</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>314709</v>
+        <v>311835</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3841329922694868</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3511603861467006</v>
+        <v>0.3489550219831937</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4231131955113944</v>
+        <v>0.4192491999244234</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>493</v>
@@ -3277,19 +3277,19 @@
         <v>520507</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>492897</v>
+        <v>493027</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>546707</v>
+        <v>546771</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6643267181815865</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6290869794988969</v>
+        <v>0.629253859613895</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6977660231631783</v>
+        <v>0.6978477801354916</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>781</v>
@@ -3298,19 +3298,19 @@
         <v>806223</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>769417</v>
+        <v>767800</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>845942</v>
+        <v>846154</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5278729241276088</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5037741266449799</v>
+        <v>0.5027149124022332</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5538788237731523</v>
+        <v>0.5540175618403891</v>
       </c>
     </row>
     <row r="40">
@@ -3327,19 +3327,19 @@
         <v>140601</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>119426</v>
+        <v>117846</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>162429</v>
+        <v>162280</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1890320373226386</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.160563472768136</v>
+        <v>0.1584384686920969</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2183781557868233</v>
+        <v>0.2181779725201969</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>73</v>
@@ -3348,19 +3348,19 @@
         <v>76636</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>60894</v>
+        <v>61654</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>95413</v>
+        <v>94143</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09781112659716572</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07771937797379132</v>
+        <v>0.07868929550905922</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1217763130601388</v>
+        <v>0.1201550835591612</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>214</v>
@@ -3369,19 +3369,19 @@
         <v>217237</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>190217</v>
+        <v>191020</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>244059</v>
+        <v>245709</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1422355309089699</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1245441856936393</v>
+        <v>0.1250700867134781</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1597973079723213</v>
+        <v>0.1608770632966172</v>
       </c>
     </row>
     <row r="41">
@@ -3398,19 +3398,19 @@
         <v>24467</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15997</v>
+        <v>15584</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>35252</v>
+        <v>35600</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03289526382676742</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02150692151672205</v>
+        <v>0.02095138381509142</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04739534772244477</v>
+        <v>0.04786264486221899</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>17</v>
@@ -3419,19 +3419,19 @@
         <v>17561</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10667</v>
+        <v>10879</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28744</v>
+        <v>28113</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02241296312064681</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01361488285146379</v>
+        <v>0.01388522805232284</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03668582669251459</v>
+        <v>0.03588060438980437</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>41</v>
@@ -3440,19 +3440,19 @@
         <v>42028</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>30460</v>
+        <v>30897</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>57657</v>
+        <v>56453</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02751782297112599</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01994383393941863</v>
+        <v>0.02022965492416577</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03775077869475676</v>
+        <v>0.03696268592320415</v>
       </c>
     </row>
     <row r="42">
@@ -3469,19 +3469,19 @@
         <v>293010</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>264938</v>
+        <v>267954</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>320744</v>
+        <v>321063</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3939397065811072</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3561974985320482</v>
+        <v>0.3602521273139694</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4312260295161634</v>
+        <v>0.4316553713582708</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>162</v>
@@ -3490,19 +3490,19 @@
         <v>168807</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>148307</v>
+        <v>147043</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>192864</v>
+        <v>191903</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.215449192100601</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1892845414488479</v>
+        <v>0.1876721003463816</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2461529592406583</v>
+        <v>0.2449275513369028</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>445</v>
@@ -3511,19 +3511,19 @@
         <v>461817</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>425367</v>
+        <v>424859</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>497631</v>
+        <v>499260</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3023737219922953</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2785080845039486</v>
+        <v>0.2781757533546115</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3258227570675288</v>
+        <v>0.3268893560904497</v>
       </c>
     </row>
     <row r="43">
@@ -3615,19 +3615,19 @@
         <v>1260667</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1202026</v>
+        <v>1206566</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1319433</v>
+        <v>1313169</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3848775836841052</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.366974616693338</v>
+        <v>0.3683608531573612</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4028186636774286</v>
+        <v>0.4009062984391998</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2204</v>
@@ -3636,19 +3636,19 @@
         <v>2259523</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2204173</v>
+        <v>2202203</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2314677</v>
+        <v>2317479</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6686568692120715</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6522772763982524</v>
+        <v>0.6516942246115297</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6849785522664467</v>
+        <v>0.6858075479348056</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3442</v>
@@ -3657,19 +3657,19 @@
         <v>3520190</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3439826</v>
+        <v>3430132</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3601975</v>
+        <v>3597944</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5289782096862725</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5169018545466164</v>
+        <v>0.5154451572413167</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5412679309033197</v>
+        <v>0.5406622185011146</v>
       </c>
     </row>
     <row r="45">
@@ -3686,19 +3686,19 @@
         <v>629553</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>583816</v>
+        <v>584040</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>678145</v>
+        <v>678617</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.192200473163617</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1782372219741326</v>
+        <v>0.1783055188693108</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2070355206324819</v>
+        <v>0.20717964404558</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>248</v>
@@ -3707,19 +3707,19 @@
         <v>256344</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>228174</v>
+        <v>226441</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>287151</v>
+        <v>287914</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.07585934664153964</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.06752307648619946</v>
+        <v>0.06701028631251017</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.08497610494943864</v>
+        <v>0.08520192198835411</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>874</v>
@@ -3728,19 +3728,19 @@
         <v>885897</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>828148</v>
+        <v>828244</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>945100</v>
+        <v>937279</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1331234720694813</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1244456136212019</v>
+        <v>0.1244600030404251</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1420198992640552</v>
+        <v>0.1408446444643675</v>
       </c>
     </row>
     <row r="46">
@@ -3757,19 +3757,19 @@
         <v>85037</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>68635</v>
+        <v>68576</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>104211</v>
+        <v>105855</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02596149507310007</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02095411720060488</v>
+        <v>0.02093609705348565</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03181543208752086</v>
+        <v>0.03231726340663656</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>85</v>
@@ -3778,19 +3778,19 @@
         <v>84519</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>67147</v>
+        <v>67781</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>103755</v>
+        <v>103209</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02501146116825536</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01987083731027446</v>
+        <v>0.02005832963801561</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03070395022692473</v>
+        <v>0.0305425005472249</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>169</v>
@@ -3799,19 +3799,19 @@
         <v>169556</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>146280</v>
+        <v>144982</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>196126</v>
+        <v>198319</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02547907620959245</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02198149849235814</v>
+        <v>0.02178641612007074</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0294718214586715</v>
+        <v>0.02980131386434762</v>
       </c>
     </row>
     <row r="47">
@@ -3828,19 +3828,19 @@
         <v>1300244</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1241488</v>
+        <v>1246851</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1358712</v>
+        <v>1355781</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3969604480791778</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3790222814535405</v>
+        <v>0.3806596136529921</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.4148104301233219</v>
+        <v>0.4139157013789906</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>760</v>
@@ -3849,19 +3849,19 @@
         <v>778811</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>730738</v>
+        <v>722976</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>827496</v>
+        <v>829703</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2304723229781336</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2162460898598537</v>
+        <v>0.2139491491364316</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2448793459129633</v>
+        <v>0.2455325604235083</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2025</v>
@@ -3870,19 +3870,19 @@
         <v>2079056</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2003973</v>
+        <v>2012668</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2162508</v>
+        <v>2157230</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3124192420346537</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.301136588407026</v>
+        <v>0.3024431126145671</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3249596318384336</v>
+        <v>0.3241665405739393</v>
       </c>
     </row>
     <row r="48">
@@ -4218,19 +4218,19 @@
         <v>77158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63235</v>
+        <v>62872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93509</v>
+        <v>92160</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2617838808808243</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2145462145009464</v>
+        <v>0.2133160035609818</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3172615165738389</v>
+        <v>0.3126834621221806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -4239,19 +4239,19 @@
         <v>149281</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130207</v>
+        <v>132409</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168113</v>
+        <v>167727</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5197006358947481</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.453294356592955</v>
+        <v>0.4609617278811609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5852610259108314</v>
+        <v>0.5839177959130116</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>214</v>
@@ -4260,19 +4260,19 @@
         <v>226439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>200970</v>
+        <v>202096</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>249610</v>
+        <v>250851</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3890819195099555</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3453197271630598</v>
+        <v>0.3472544567783574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4288951280182999</v>
+        <v>0.431027761835136</v>
       </c>
     </row>
     <row r="5">
@@ -4289,19 +4289,19 @@
         <v>81101</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66198</v>
+        <v>65826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98869</v>
+        <v>95964</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2751620548485104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2245997236089826</v>
+        <v>0.2233367756735673</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3354476628230515</v>
+        <v>0.3255911775655886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -4310,19 +4310,19 @@
         <v>40033</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29115</v>
+        <v>28043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54646</v>
+        <v>53982</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.139367446505111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1013604877894031</v>
+        <v>0.09762641072108957</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1902409929865165</v>
+        <v>0.1879299193981785</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>109</v>
@@ -4331,19 +4331,19 @@
         <v>121133</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102214</v>
+        <v>102988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>144463</v>
+        <v>145202</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2081389283455712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1756312777379723</v>
+        <v>0.1769606514605102</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2482254713042179</v>
+        <v>0.2494949408701668</v>
       </c>
     </row>
     <row r="6">
@@ -4360,19 +4360,19 @@
         <v>9755</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5184</v>
+        <v>4510</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17679</v>
+        <v>17065</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03309792255424097</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01758959334478764</v>
+        <v>0.01530130824562202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05998161432905535</v>
+        <v>0.05789971143634646</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -4381,19 +4381,19 @@
         <v>7344</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3277</v>
+        <v>3149</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16131</v>
+        <v>14944</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02556759968687521</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01140970640113396</v>
+        <v>0.01096177115010266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0561562240902411</v>
+        <v>0.0520252809053411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -4402,19 +4402,19 @@
         <v>17099</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9944</v>
+        <v>9784</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28551</v>
+        <v>26904</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02938123756722644</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01708614304186739</v>
+        <v>0.01681079431871155</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04905800984163532</v>
+        <v>0.04622791302268426</v>
       </c>
     </row>
     <row r="7">
@@ -4431,19 +4431,19 @@
         <v>126724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109387</v>
+        <v>108980</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144414</v>
+        <v>145163</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4299561417164243</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3711346719948479</v>
+        <v>0.3697524068732519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4899739361824291</v>
+        <v>0.4925155927409345</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -4452,19 +4452,19 @@
         <v>90587</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>74521</v>
+        <v>72989</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107585</v>
+        <v>108403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3153643179132656</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2594330952304442</v>
+        <v>0.2540990366107102</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3745421241428553</v>
+        <v>0.3773878919494674</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -4473,19 +4473,19 @@
         <v>217311</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>194038</v>
+        <v>195227</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>242955</v>
+        <v>243791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3733979145772469</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3334078603288311</v>
+        <v>0.3354515979050355</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4174603111884518</v>
+        <v>0.4188975911973362</v>
       </c>
     </row>
     <row r="8">
@@ -4577,19 +4577,19 @@
         <v>171287</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>151034</v>
+        <v>149844</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>195485</v>
+        <v>194968</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3388289147104048</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2987648453732731</v>
+        <v>0.2964117543840633</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3866957760405843</v>
+        <v>0.3856729411480069</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>285</v>
@@ -4598,19 +4598,19 @@
         <v>308663</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>283029</v>
+        <v>287432</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>331370</v>
+        <v>330878</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5893160805700188</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5403733370811882</v>
+        <v>0.5487800431443735</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6326685213212859</v>
+        <v>0.6317302768425547</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>449</v>
@@ -4619,19 +4619,19 @@
         <v>479950</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>444727</v>
+        <v>444073</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>510617</v>
+        <v>510442</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4662916543543142</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4320712373662963</v>
+        <v>0.4314349473217909</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4960856412616892</v>
+        <v>0.4959158833693544</v>
       </c>
     </row>
     <row r="10">
@@ -4648,19 +4648,19 @@
         <v>126135</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107396</v>
+        <v>105298</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145005</v>
+        <v>144935</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2495125624306522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.212444343205054</v>
+        <v>0.2082931004566891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2868389735137547</v>
+        <v>0.2867016448583836</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -4669,19 +4669,19 @@
         <v>63884</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49638</v>
+        <v>49547</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81964</v>
+        <v>80611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.121970016084944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09477061430577323</v>
+        <v>0.09459750978258756</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1564894490665108</v>
+        <v>0.1539067231063987</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -4690,19 +4690,19 @@
         <v>190019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166912</v>
+        <v>165228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214281</v>
+        <v>216759</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1846113435494602</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.162161792658857</v>
+        <v>0.1605259150239789</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.208182865440692</v>
+        <v>0.2105902183164167</v>
       </c>
     </row>
     <row r="11">
@@ -4719,19 +4719,19 @@
         <v>14675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8475</v>
+        <v>8547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26330</v>
+        <v>26194</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02902986172967072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01676530314046304</v>
+        <v>0.01690748787559505</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05208397670496161</v>
+        <v>0.05181586538150799</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -4740,19 +4740,19 @@
         <v>8142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3980</v>
+        <v>4048</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15549</v>
+        <v>15712</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01554535311317019</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007598771966436811</v>
+        <v>0.007728011386961172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02968684333262859</v>
+        <v>0.02999793462217396</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -4761,19 +4761,19 @@
         <v>22817</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14522</v>
+        <v>15054</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36503</v>
+        <v>34290</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02216814326552255</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01410890621843732</v>
+        <v>0.01462563174128062</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03546452152737894</v>
+        <v>0.03331369418719156</v>
       </c>
     </row>
     <row r="12">
@@ -4790,19 +4790,19 @@
         <v>193429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>169371</v>
+        <v>170991</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>217669</v>
+        <v>217909</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3826286611292722</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3350389729037351</v>
+        <v>0.3382429779425322</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4305777297401004</v>
+        <v>0.4310539080389309</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>130</v>
@@ -4811,19 +4811,19 @@
         <v>143076</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123624</v>
+        <v>123203</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>167146</v>
+        <v>163036</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2731685502318669</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2360287235788499</v>
+        <v>0.2352256007167927</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3191248837813889</v>
+        <v>0.3112772531758079</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>308</v>
@@ -4832,19 +4832,19 @@
         <v>336505</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>305126</v>
+        <v>306507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>368100</v>
+        <v>368633</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3269288588307031</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2964425844848772</v>
+        <v>0.2977844269514741</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3576244915914152</v>
+        <v>0.3581421925185558</v>
       </c>
     </row>
     <row r="13">
@@ -4936,19 +4936,19 @@
         <v>108234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91514</v>
+        <v>90939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>127250</v>
+        <v>125635</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3340095836190763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2824114100589467</v>
+        <v>0.2806357784287353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.392690675898438</v>
+        <v>0.3877069978830016</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>206</v>
@@ -4957,19 +4957,19 @@
         <v>218369</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>199094</v>
+        <v>200608</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>236699</v>
+        <v>238363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6421965130757473</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5855117082529001</v>
+        <v>0.5899630962963708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6961033797991764</v>
+        <v>0.7009964833641636</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>313</v>
@@ -4978,19 +4978,19 @@
         <v>326603</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>299359</v>
+        <v>299060</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>354985</v>
+        <v>352145</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4918129253034985</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4507876165222368</v>
+        <v>0.4503366232262135</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5345508486793064</v>
+        <v>0.5302747023686359</v>
       </c>
     </row>
     <row r="15">
@@ -5007,19 +5007,19 @@
         <v>88774</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>73301</v>
+        <v>73355</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>105316</v>
+        <v>106206</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2739551316830742</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2262056033578347</v>
+        <v>0.2263715068360002</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3250046496165211</v>
+        <v>0.3277485549189381</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>30</v>
@@ -5028,19 +5028,19 @@
         <v>34232</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24070</v>
+        <v>22971</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49132</v>
+        <v>47985</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.100673034231244</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07078701075388091</v>
+        <v>0.06755396199993866</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.144490402566336</v>
+        <v>0.1411180202071608</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>116</v>
@@ -5049,19 +5049,19 @@
         <v>123006</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>102361</v>
+        <v>101135</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>144420</v>
+        <v>143970</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1852281565313621</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1541402354049142</v>
+        <v>0.15229298649477</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.217474014080664</v>
+        <v>0.2167968557255374</v>
       </c>
     </row>
     <row r="16">
@@ -5078,19 +5078,19 @@
         <v>9521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4744</v>
+        <v>4713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18425</v>
+        <v>17878</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02938205590187001</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01463891314097037</v>
+        <v>0.0145430122568005</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05685796500954282</v>
+        <v>0.05517094602778401</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -5099,19 +5099,19 @@
         <v>5986</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2038</v>
+        <v>2016</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12340</v>
+        <v>12180</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01760420175980443</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005993695529186919</v>
+        <v>0.005928367938343023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03629104731966384</v>
+        <v>0.03581951943082289</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -5120,19 +5120,19 @@
         <v>15507</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8694</v>
+        <v>8573</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26272</v>
+        <v>23766</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02335134997684483</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01309108864665471</v>
+        <v>0.01290892305466253</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03956149925237883</v>
+        <v>0.03578847944840947</v>
       </c>
     </row>
     <row r="17">
@@ -5149,19 +5149,19 @@
         <v>117516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101368</v>
+        <v>100123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>134498</v>
+        <v>134922</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3626532287959794</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3128205304685315</v>
+        <v>0.308976469532045</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4150580244576036</v>
+        <v>0.4163655034926937</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -5170,19 +5170,19 @@
         <v>81447</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64681</v>
+        <v>65795</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>98539</v>
+        <v>98453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2395262509332043</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1902205121368957</v>
+        <v>0.1934961161392436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2897930776075656</v>
+        <v>0.2895391452701999</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>191</v>
@@ -5191,19 +5191,19 @@
         <v>198963</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177039</v>
+        <v>175512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>223580</v>
+        <v>222674</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2996075681882946</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2665932206937656</v>
+        <v>0.2642937624208888</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3366770505136089</v>
+        <v>0.3353114176537063</v>
       </c>
     </row>
     <row r="18">
@@ -5295,19 +5295,19 @@
         <v>136618</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118719</v>
+        <v>117040</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155951</v>
+        <v>155387</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3653072156000209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.317446651819173</v>
+        <v>0.3129564843003442</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4170000851680467</v>
+        <v>0.4154927815603017</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -5316,19 +5316,19 @@
         <v>238475</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>216944</v>
+        <v>218781</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>256794</v>
+        <v>258729</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6131240447156929</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5577665758842012</v>
+        <v>0.5624902033704</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6602222091850842</v>
+        <v>0.6651957023581825</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>353</v>
@@ -5337,19 +5337,19 @@
         <v>375094</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>346607</v>
+        <v>347077</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>401666</v>
+        <v>406030</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4916467349052281</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4543085654874656</v>
+        <v>0.4549247970724601</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5264766809398035</v>
+        <v>0.5321964707423248</v>
       </c>
     </row>
     <row r="20">
@@ -5366,19 +5366,19 @@
         <v>105437</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87574</v>
+        <v>87664</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122604</v>
+        <v>125685</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2819306139711623</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2341672166823129</v>
+        <v>0.2344064071180315</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3278347473922264</v>
+        <v>0.3360725354402225</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -5387,19 +5387,19 @@
         <v>46492</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34592</v>
+        <v>34679</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58881</v>
+        <v>60711</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1195324776777217</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08893792979113152</v>
+        <v>0.08915954288909658</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.151383504391593</v>
+        <v>0.1560895297145043</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>143</v>
@@ -5408,19 +5408,19 @@
         <v>151929</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>128687</v>
+        <v>128273</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>174213</v>
+        <v>173388</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.199138405917374</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1686735455558881</v>
+        <v>0.1681317216816776</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2283462260732451</v>
+        <v>0.227264730873649</v>
       </c>
     </row>
     <row r="21">
@@ -5437,19 +5437,19 @@
         <v>11831</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6683</v>
+        <v>6194</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20419</v>
+        <v>20022</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03163583329367464</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01786866479516253</v>
+        <v>0.01656262288621701</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05459795520692146</v>
+        <v>0.05353643650554592</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -5458,19 +5458,19 @@
         <v>7632</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3164</v>
+        <v>2899</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16721</v>
+        <v>16287</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01962125454438331</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008134031937389355</v>
+        <v>0.007452824218634204</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04298981313164509</v>
+        <v>0.04187381220878506</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -5479,19 +5479,19 @@
         <v>19463</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12108</v>
+        <v>12773</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29638</v>
+        <v>30611</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0255106798516882</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01587062152669297</v>
+        <v>0.01674147077723116</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03884768796210209</v>
+        <v>0.04012303674596215</v>
       </c>
     </row>
     <row r="22">
@@ -5508,19 +5508,19 @@
         <v>120095</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>101015</v>
+        <v>100374</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141350</v>
+        <v>141211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3211263371351421</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.270107857186162</v>
+        <v>0.2683925361892943</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3779580782828886</v>
+        <v>0.3775886786104845</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -5529,19 +5529,19 @@
         <v>96352</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>80241</v>
+        <v>79391</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115265</v>
+        <v>113056</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2477222230622021</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.206301381388585</v>
+        <v>0.2041157775529737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2963484206721246</v>
+        <v>0.2906689158600656</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>201</v>
@@ -5550,19 +5550,19 @@
         <v>216447</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>191875</v>
+        <v>191197</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>242170</v>
+        <v>244226</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2837041793257096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2514969562547413</v>
+        <v>0.2506084808459965</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3174199697337328</v>
+        <v>0.3201146155721494</v>
       </c>
     </row>
     <row r="23">
@@ -5654,19 +5654,19 @@
         <v>70796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57309</v>
+        <v>57085</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>85116</v>
+        <v>85318</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3329705909718998</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2695383165509381</v>
+        <v>0.2684869655179769</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4003212964007211</v>
+        <v>0.40127555880615</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>122</v>
@@ -5675,19 +5675,19 @@
         <v>127300</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>113053</v>
+        <v>112250</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>142763</v>
+        <v>140759</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.579711970091432</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5148357499528922</v>
+        <v>0.5111765194975695</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6501316654768453</v>
+        <v>0.6410046378591668</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>190</v>
@@ -5696,19 +5696,19 @@
         <v>198095</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>176835</v>
+        <v>176278</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>219482</v>
+        <v>220326</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4583316576024103</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.40914247840725</v>
+        <v>0.4078533384814292</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.507815332456292</v>
+        <v>0.5097662852389706</v>
       </c>
     </row>
     <row r="25">
@@ -5725,19 +5725,19 @@
         <v>50423</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37052</v>
+        <v>38239</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64053</v>
+        <v>63657</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2371531247964675</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1742645730268094</v>
+        <v>0.1798505073974223</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3012595990482116</v>
+        <v>0.2993974580514953</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -5746,19 +5746,19 @@
         <v>26852</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18218</v>
+        <v>18005</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37872</v>
+        <v>37607</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1222821927000199</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08296389783259195</v>
+        <v>0.08199177768259049</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1724672012862447</v>
+        <v>0.1712609085341366</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -5767,19 +5767,19 @@
         <v>77275</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61952</v>
+        <v>61991</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96582</v>
+        <v>94083</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1787910348063833</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1433376021237682</v>
+        <v>0.1434273934107586</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2234608063681033</v>
+        <v>0.217679668778413</v>
       </c>
     </row>
     <row r="26">
@@ -5796,19 +5796,19 @@
         <v>3299</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8811</v>
+        <v>8789</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01551547672067532</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004833065799624458</v>
+        <v>0.004773885554219717</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04144252537111161</v>
+        <v>0.04133784757037515</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -5817,19 +5817,19 @@
         <v>3854</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8799</v>
+        <v>8914</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01755299561215982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004497195871567315</v>
+        <v>0.004519999486270265</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04006820024176064</v>
+        <v>0.04059552880194559</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -5838,19 +5838,19 @@
         <v>7153</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2945</v>
+        <v>3071</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13550</v>
+        <v>13335</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01655067212416933</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006813241902333766</v>
+        <v>0.0071062585767045</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03135163649549291</v>
+        <v>0.03085265622279517</v>
       </c>
     </row>
     <row r="27">
@@ -5867,19 +5867,19 @@
         <v>88101</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>73895</v>
+        <v>73346</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>102723</v>
+        <v>102646</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4143608075109574</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3475473655459589</v>
+        <v>0.3449678544473365</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4831326138377858</v>
+        <v>0.4827700161996648</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>60</v>
@@ -5888,19 +5888,19 @@
         <v>61585</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>48054</v>
+        <v>48395</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>74486</v>
+        <v>75651</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2804528415963882</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2188362064641808</v>
+        <v>0.2203878717657214</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3392047361396525</v>
+        <v>0.3445089502299884</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>141</v>
@@ -5909,19 +5909,19 @@
         <v>149685</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>129928</v>
+        <v>128715</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>169633</v>
+        <v>171329</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.346326635467037</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3006135720978682</v>
+        <v>0.2978072331145427</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3924786583540982</v>
+        <v>0.3964023812099667</v>
       </c>
     </row>
     <row r="28">
@@ -6013,19 +6013,19 @@
         <v>104158</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>87661</v>
+        <v>87921</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>121774</v>
+        <v>121364</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3801639297168038</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3199532861238281</v>
+        <v>0.3209026243708937</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4444627865175689</v>
+        <v>0.4429638775795057</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>184</v>
@@ -6034,19 +6034,19 @@
         <v>191304</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>175437</v>
+        <v>175974</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>207257</v>
+        <v>206131</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6831517615793813</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6264920436163187</v>
+        <v>0.6284092268233118</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7401230112134229</v>
+        <v>0.7361003696171797</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>279</v>
@@ -6055,19 +6055,19 @@
         <v>295461</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>271229</v>
+        <v>272971</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>318446</v>
+        <v>318382</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5333122093768696</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4895729849258948</v>
+        <v>0.4927162271187127</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5748002236275088</v>
+        <v>0.5746839903034618</v>
       </c>
     </row>
     <row r="30">
@@ -6084,19 +6084,19 @@
         <v>86083</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>71499</v>
+        <v>69882</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>101676</v>
+        <v>102981</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3141933923083638</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2609618534135678</v>
+        <v>0.255059909118438</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.371107176191963</v>
+        <v>0.3758677366524426</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>21</v>
@@ -6105,19 +6105,19 @@
         <v>21849</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>13752</v>
+        <v>13665</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>33077</v>
+        <v>32814</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07802182470441298</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04910974418543879</v>
+        <v>0.04879798751803393</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1181191087056509</v>
+        <v>0.1171793948725988</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>105</v>
@@ -6126,19 +6126,19 @@
         <v>107932</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>90454</v>
+        <v>91207</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>126515</v>
+        <v>127870</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1948180726434775</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1632706063946795</v>
+        <v>0.164629497538035</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2283610538114398</v>
+        <v>0.2308072765912769</v>
       </c>
     </row>
     <row r="31">
@@ -6155,19 +6155,19 @@
         <v>6842</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2856</v>
+        <v>2812</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14782</v>
+        <v>15503</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02497280246981934</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01042324692217454</v>
+        <v>0.01026479642644089</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05395264409673272</v>
+        <v>0.05658442568361503</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -6176,19 +6176,19 @@
         <v>9049</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4084</v>
+        <v>4058</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16056</v>
+        <v>15990</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03231390880559101</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01458288709534567</v>
+        <v>0.01448999938678384</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05733543308190954</v>
+        <v>0.05710134478039124</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -6197,19 +6197,19 @@
         <v>15891</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8739</v>
+        <v>9081</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>25034</v>
+        <v>25799</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02868343929379241</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01577472085755769</v>
+        <v>0.01639062880001594</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04518728275124819</v>
+        <v>0.0465671365843105</v>
       </c>
     </row>
     <row r="32">
@@ -6226,19 +6226,19 @@
         <v>76898</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>63453</v>
+        <v>62664</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>94749</v>
+        <v>93896</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.280669875505013</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2315967401320274</v>
+        <v>0.2287183595495415</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3458244064398144</v>
+        <v>0.3427085281952919</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>55</v>
@@ -6247,19 +6247,19 @@
         <v>57830</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>44937</v>
+        <v>44949</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>71669</v>
+        <v>72384</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2065125049106147</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1604700297281241</v>
+        <v>0.1605130280646762</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2559313690978112</v>
+        <v>0.2584855370463507</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>131</v>
@@ -6268,19 +6268,19 @@
         <v>134728</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>115338</v>
+        <v>117368</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>156766</v>
+        <v>158152</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2431862786858604</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2081869884230456</v>
+        <v>0.2118503589987991</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2829646443585009</v>
+        <v>0.2854670671762423</v>
       </c>
     </row>
     <row r="33">
@@ -6372,19 +6372,19 @@
         <v>212888</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>188601</v>
+        <v>187844</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>238589</v>
+        <v>237195</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3212012699630893</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.284557432260031</v>
+        <v>0.2834143625679624</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3599774179619528</v>
+        <v>0.3578738917097757</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>373</v>
@@ -6393,19 +6393,19 @@
         <v>406350</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>377548</v>
+        <v>376683</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>432373</v>
+        <v>431136</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5856434661531835</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5441325576173361</v>
+        <v>0.5428861132718663</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6231483529139601</v>
+        <v>0.6213645108640137</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>569</v>
@@ -6414,19 +6414,19 @@
         <v>619239</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>581200</v>
+        <v>578991</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>657598</v>
+        <v>660125</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4564500218894953</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4284110840330425</v>
+        <v>0.4267825834983703</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.484725221297401</v>
+        <v>0.4865876876803619</v>
       </c>
     </row>
     <row r="35">
@@ -6443,19 +6443,19 @@
         <v>169705</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>148954</v>
+        <v>146568</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>194342</v>
+        <v>191937</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2560475766056845</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2247380412349242</v>
+        <v>0.2211391038069556</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2932189144005146</v>
+        <v>0.2895909817795146</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>85</v>
@@ -6464,19 +6464,19 @@
         <v>92953</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>74831</v>
+        <v>76823</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>112583</v>
+        <v>114182</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1339660402182838</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1078488524871884</v>
+        <v>0.1107199668312427</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1622573061388276</v>
+        <v>0.1645618881925939</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>244</v>
@@ -6485,19 +6485,19 @@
         <v>262658</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>233227</v>
+        <v>234129</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>292710</v>
+        <v>296256</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1936090714520483</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1719148314021305</v>
+        <v>0.1725796577993874</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2157610077751645</v>
+        <v>0.2183748153974508</v>
       </c>
     </row>
     <row r="36">
@@ -6514,19 +6514,19 @@
         <v>22471</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14304</v>
+        <v>13549</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34348</v>
+        <v>34335</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03390309299508901</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02158106794320474</v>
+        <v>0.02044240535240592</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05182405178696121</v>
+        <v>0.051803475669533</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>20</v>
@@ -6535,19 +6535,19 @@
         <v>22496</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>13183</v>
+        <v>13969</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>32471</v>
+        <v>35188</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03242213838691125</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01899920190925695</v>
+        <v>0.02013184913938106</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04679825140942109</v>
+        <v>0.05071356234674063</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>40</v>
@@ -6556,19 +6556,19 @@
         <v>44967</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>32588</v>
+        <v>31790</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>60692</v>
+        <v>61058</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03314565993296258</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02402076521276289</v>
+        <v>0.02343254480452493</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04473698891602227</v>
+        <v>0.04500711408633434</v>
       </c>
     </row>
     <row r="37">
@@ -6585,19 +6585,19 @@
         <v>257724</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>232296</v>
+        <v>231410</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>284460</v>
+        <v>283409</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3888480604361372</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3504833424792113</v>
+        <v>0.3491466606777787</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4291876632522754</v>
+        <v>0.4276006704095044</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>158</v>
@@ -6606,19 +6606,19 @@
         <v>172054</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>148215</v>
+        <v>151179</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>198881</v>
+        <v>196717</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2479683552416214</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.213611872687857</v>
+        <v>0.2178836462927534</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2866328897301219</v>
+        <v>0.2835134430384514</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>401</v>
@@ -6627,19 +6627,19 @@
         <v>429777</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>396703</v>
+        <v>392993</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>469963</v>
+        <v>465215</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3167952467254938</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2924159287559425</v>
+        <v>0.2896809046023262</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3464162784347463</v>
+        <v>0.3429168840461226</v>
       </c>
     </row>
     <row r="38">
@@ -6731,19 +6731,19 @@
         <v>350735</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>323508</v>
+        <v>321921</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>378383</v>
+        <v>378394</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.450775962880594</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4157831029672816</v>
+        <v>0.4137441095760163</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4863101068119922</v>
+        <v>0.4863248094085932</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>505</v>
@@ -6752,19 +6752,19 @@
         <v>547094</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>519069</v>
+        <v>519369</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>578673</v>
+        <v>573071</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6648715034373862</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.630813623668493</v>
+        <v>0.6311775791530985</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7032488487156906</v>
+        <v>0.6964407515551063</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>832</v>
@@ -6773,19 +6773,19 @@
         <v>897829</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>855907</v>
+        <v>856620</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>936832</v>
+        <v>941423</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5608185528721836</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.534632357818172</v>
+        <v>0.5350776661457074</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5851815947697668</v>
+        <v>0.5880492034199839</v>
       </c>
     </row>
     <row r="40">
@@ -6802,19 +6802,19 @@
         <v>131180</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>110471</v>
+        <v>110545</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>154774</v>
+        <v>157187</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1685971394546085</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1419807036501365</v>
+        <v>0.1420758339077528</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.198920465452773</v>
+        <v>0.2020225286865495</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>61</v>
@@ -6823,19 +6823,19 @@
         <v>66927</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>52773</v>
+        <v>51799</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>84154</v>
+        <v>83576</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08133456456950434</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06413417859202444</v>
+        <v>0.06295075777262463</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1022703788859202</v>
+        <v>0.1015684529213609</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>176</v>
@@ -6844,19 +6844,19 @@
         <v>198107</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>172777</v>
+        <v>170945</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>227122</v>
+        <v>229293</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1237452022086542</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1079233907684156</v>
+        <v>0.1067785381106253</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1418693768663187</v>
+        <v>0.143225129622733</v>
       </c>
     </row>
     <row r="41">
@@ -6873,19 +6873,19 @@
         <v>17506</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10448</v>
+        <v>10197</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>27240</v>
+        <v>26992</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02249991424415688</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0134282882762513</v>
+        <v>0.01310513802313536</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03501018800144901</v>
+        <v>0.03469088385778531</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>8</v>
@@ -6894,19 +6894,19 @@
         <v>9356</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4219</v>
+        <v>4158</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>18138</v>
+        <v>17858</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01137016396092904</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00512671127395127</v>
+        <v>0.005053191147701053</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02204308438623713</v>
+        <v>0.02170249097076086</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>25</v>
@@ -6915,19 +6915,19 @@
         <v>26863</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>18010</v>
+        <v>17942</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>37730</v>
+        <v>40484</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01677935348917405</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01124971481353867</v>
+        <v>0.01120755141151773</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02356772486234738</v>
+        <v>0.02528801146795695</v>
       </c>
     </row>
     <row r="42">
@@ -6944,19 +6944,19 @@
         <v>278648</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>252456</v>
+        <v>251669</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>305954</v>
+        <v>307402</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3581269834206406</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3244650336133139</v>
+        <v>0.3234529239296924</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3932216817339141</v>
+        <v>0.3950836302366347</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>182</v>
@@ -6965,19 +6965,19 @@
         <v>199480</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>171490</v>
+        <v>176036</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>224650</v>
+        <v>224536</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2424237680321804</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2084083817268064</v>
+        <v>0.2139324495155393</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2730124057778986</v>
+        <v>0.2728742244600506</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>439</v>
@@ -6986,19 +6986,19 @@
         <v>478128</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>442050</v>
+        <v>441759</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>517627</v>
+        <v>516840</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2986568914299881</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2761216507163159</v>
+        <v>0.2759397250348416</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3233296598338112</v>
+        <v>0.3228382200118234</v>
       </c>
     </row>
     <row r="43">
@@ -7090,19 +7090,19 @@
         <v>1231874</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1173768</v>
+        <v>1175553</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1290552</v>
+        <v>1291020</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3595925917130339</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3426311780195975</v>
+        <v>0.3431520710401239</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.376721196682845</v>
+        <v>0.37685773818117</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2038</v>
@@ -7111,19 +7111,19 @@
         <v>2186836</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2124158</v>
+        <v>2128198</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2246797</v>
+        <v>2252840</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6149142795151091</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5972899294813295</v>
+        <v>0.5984258070145581</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6317744915141436</v>
+        <v>0.6334739281354921</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3199</v>
@@ -7132,19 +7132,19 @@
         <v>3418710</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3326954</v>
+        <v>3333301</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3500897</v>
+        <v>3506043</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4896409307658535</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4764992526307606</v>
+        <v>0.4774083205869287</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5014121042683688</v>
+        <v>0.5021490608342807</v>
       </c>
     </row>
     <row r="45">
@@ -7161,19 +7161,19 @@
         <v>838839</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>788319</v>
+        <v>787011</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>894826</v>
+        <v>892730</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2448628410866639</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2301158886540551</v>
+        <v>0.2297341392484305</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2612059132673246</v>
+        <v>0.260594101140626</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>360</v>
@@ -7182,19 +7182,19 @@
         <v>393221</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>354820</v>
+        <v>354368</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>432538</v>
+        <v>431565</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1105693633877676</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.09977134598354585</v>
+        <v>0.09964432216209304</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1216249931697448</v>
+        <v>0.121351314259714</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1137</v>
@@ -7203,19 +7203,19 @@
         <v>1232059</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1169375</v>
+        <v>1168607</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1300502</v>
+        <v>1294259</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1764603333690003</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1674823990326915</v>
+        <v>0.1673724776629829</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1862629307649648</v>
+        <v>0.1853687491612746</v>
       </c>
     </row>
     <row r="46">
@@ -7232,19 +7232,19 @@
         <v>95901</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>75643</v>
+        <v>77124</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>119350</v>
+        <v>117153</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02799415798350346</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02208069570312615</v>
+        <v>0.02251289877533076</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03483919590397055</v>
+        <v>0.03419780491774872</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>67</v>
@@ -7253,19 +7253,19 @@
         <v>73860</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>57160</v>
+        <v>57291</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>92906</v>
+        <v>93652</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02076850746056167</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01607267565131639</v>
+        <v>0.01610957078337414</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02612403102569129</v>
+        <v>0.02633388846083938</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>157</v>
@@ -7274,19 +7274,19 @@
         <v>169761</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>144584</v>
+        <v>143729</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>198886</v>
+        <v>198567</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02431376617200503</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02070785638233402</v>
+        <v>0.02058544392406543</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02848526805732056</v>
+        <v>0.02843949388107034</v>
       </c>
     </row>
     <row r="47">
@@ -7303,19 +7303,19 @@
         <v>1259135</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1205545</v>
+        <v>1204804</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1322655</v>
+        <v>1321324</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3675504092167987</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3519070713502759</v>
+        <v>0.3516907554976396</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3860923104330597</v>
+        <v>0.3857037870982581</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>831</v>
@@ -7324,19 +7324,19 @@
         <v>902410</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>847531</v>
+        <v>848360</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>959085</v>
+        <v>957759</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2537478496365617</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2383162548398573</v>
+        <v>0.2385494381345604</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2696840887902998</v>
+        <v>0.269311392807399</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2011</v>
@@ -7345,19 +7345,19 @@
         <v>2161546</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2086020</v>
+        <v>2085651</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2247937</v>
+        <v>2247997</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3095849696931411</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2987679426513377</v>
+        <v>0.2987150415814971</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3219581933833228</v>
+        <v>0.321966839837012</v>
       </c>
     </row>
     <row r="48">
@@ -7693,19 +7693,19 @@
         <v>106685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>88960</v>
+        <v>90146</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123942</v>
+        <v>122795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3631707922823302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3028324210893553</v>
+        <v>0.3068676134352458</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4219159695732067</v>
+        <v>0.4180105089429364</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -7714,19 +7714,19 @@
         <v>160164</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142433</v>
+        <v>142635</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177611</v>
+        <v>176862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5547691754798346</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4933548130234134</v>
+        <v>0.4940553329396535</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.615202013821361</v>
+        <v>0.6126090044901905</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>246</v>
@@ -7735,19 +7735,19 @@
         <v>266849</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>243565</v>
+        <v>242633</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>291996</v>
+        <v>292286</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4581380828471164</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4181632327964128</v>
+        <v>0.4165627160951775</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5013109224637792</v>
+        <v>0.5018096359819354</v>
       </c>
     </row>
     <row r="5">
@@ -7764,19 +7764,19 @@
         <v>79162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65112</v>
+        <v>66450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95336</v>
+        <v>98723</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2694771545540358</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2216498866230969</v>
+        <v>0.2262036161697676</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3245346215862325</v>
+        <v>0.3360663396814511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -7785,19 +7785,19 @@
         <v>54826</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41717</v>
+        <v>41848</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69993</v>
+        <v>69203</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.189903909235808</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1444978725314093</v>
+        <v>0.1449520723953365</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2424410668067762</v>
+        <v>0.2397046919799337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>128</v>
@@ -7806,19 +7806,19 @@
         <v>133988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>115651</v>
+        <v>114456</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155837</v>
+        <v>156639</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2300360309745672</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1985549252805862</v>
+        <v>0.1965032056878244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2675477011117055</v>
+        <v>0.2689248027716471</v>
       </c>
     </row>
     <row r="6">
@@ -7835,19 +7835,19 @@
         <v>10734</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5470</v>
+        <v>5436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19384</v>
+        <v>19311</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03654018284521359</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01862136124037771</v>
+        <v>0.01850531517821679</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06598562788360242</v>
+        <v>0.06573848003838674</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -7856,19 +7856,19 @@
         <v>8564</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3996</v>
+        <v>3833</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15517</v>
+        <v>15303</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02966466222221128</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01383998488654286</v>
+        <v>0.01327731380944794</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05374853096125282</v>
+        <v>0.05300477262454358</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -7877,19 +7877,19 @@
         <v>19298</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12125</v>
+        <v>11781</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29083</v>
+        <v>28952</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03313227535720643</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02081672382026892</v>
+        <v>0.02022579510809561</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0499305369941321</v>
+        <v>0.04970655285609059</v>
       </c>
     </row>
     <row r="7">
@@ -7906,19 +7906,19 @@
         <v>97180</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80318</v>
+        <v>80121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113774</v>
+        <v>113408</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3308118703184204</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2734121045622358</v>
+        <v>0.2727405823967518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3873018605529491</v>
+        <v>0.3860554733251974</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -7927,19 +7927,19 @@
         <v>65149</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52207</v>
+        <v>52320</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81850</v>
+        <v>81148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2256622530621462</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1808332355359036</v>
+        <v>0.1812244074903385</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2835099297241575</v>
+        <v>0.2810787745186595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>150</v>
@@ -7948,19 +7948,19 @@
         <v>162329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>140157</v>
+        <v>138029</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>186141</v>
+        <v>185906</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.27869361082111</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2406270812332824</v>
+        <v>0.2369741157502642</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3195750945807511</v>
+        <v>0.3191715902297555</v>
       </c>
     </row>
     <row r="8">
@@ -8052,19 +8052,19 @@
         <v>206748</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>182464</v>
+        <v>185549</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>228237</v>
+        <v>231360</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4120850168457943</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3636824855449299</v>
+        <v>0.3698329389721557</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4549174693489971</v>
+        <v>0.4611419664295064</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>310</v>
@@ -8073,19 +8073,19 @@
         <v>340052</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>317381</v>
+        <v>319063</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>362027</v>
+        <v>361320</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6528329047697433</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6093091265550216</v>
+        <v>0.6125382660395771</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6950210149514191</v>
+        <v>0.6936634260657658</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>505</v>
@@ -8094,19 +8094,19 @@
         <v>546799</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>512026</v>
+        <v>514803</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>579169</v>
+        <v>580657</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5347161744776437</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5007118336637375</v>
+        <v>0.5034267254321069</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5663711132921522</v>
+        <v>0.5678262536347886</v>
       </c>
     </row>
     <row r="10">
@@ -8123,19 +8123,19 @@
         <v>84868</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68274</v>
+        <v>69407</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103913</v>
+        <v>103408</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1691566241698684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1360815882991705</v>
+        <v>0.1383405191152987</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2071165503381515</v>
+        <v>0.2061107990193899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -8144,19 +8144,19 @@
         <v>39033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26298</v>
+        <v>28652</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52405</v>
+        <v>53640</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07493606310987927</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05048654743431819</v>
+        <v>0.05500708389261042</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1006065414258231</v>
+        <v>0.1029788800385284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -8165,19 +8165,19 @@
         <v>123901</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104596</v>
+        <v>103922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146078</v>
+        <v>144873</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1211629467376544</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.102284883616718</v>
+        <v>0.1016250950979546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1428496666820575</v>
+        <v>0.1416713322862075</v>
       </c>
     </row>
     <row r="11">
@@ -8194,19 +8194,19 @@
         <v>14931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8340</v>
+        <v>8728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24652</v>
+        <v>23816</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02975945896477416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01662325186643517</v>
+        <v>0.01739673208415493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04913552455153149</v>
+        <v>0.04746939160842487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -8215,19 +8215,19 @@
         <v>5184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2067</v>
+        <v>2008</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11418</v>
+        <v>11802</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009952050753644999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003968389988678632</v>
+        <v>0.003854302435742662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02192114332783921</v>
+        <v>0.02265719416291537</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -8236,19 +8236,19 @@
         <v>20115</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12252</v>
+        <v>12049</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30807</v>
+        <v>31193</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01967004376963576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01198083620141298</v>
+        <v>0.01178256652995029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03012604455498271</v>
+        <v>0.03050340790086066</v>
       </c>
     </row>
     <row r="12">
@@ -8265,19 +8265,19 @@
         <v>195165</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>173551</v>
+        <v>172246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>216370</v>
+        <v>217228</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3889989000195631</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3459173842402972</v>
+        <v>0.3433174773097293</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4312645780294341</v>
+        <v>0.4329751885245846</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>130</v>
@@ -8286,19 +8286,19 @@
         <v>136617</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>116019</v>
+        <v>117308</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>156586</v>
+        <v>155024</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2622789813667324</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2227347142876954</v>
+        <v>0.2252084192357085</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3006143022999926</v>
+        <v>0.2976159748231323</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>312</v>
@@ -8307,19 +8307,19 @@
         <v>331782</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>302953</v>
+        <v>303274</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>366002</v>
+        <v>362318</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3244508350150661</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2962587689103232</v>
+        <v>0.2965728107691279</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3579138081153581</v>
+        <v>0.3543111385233049</v>
       </c>
     </row>
     <row r="13">
@@ -8411,19 +8411,19 @@
         <v>152272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134996</v>
+        <v>135450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>170069</v>
+        <v>170410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4779936023617758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.423763873057389</v>
+        <v>0.4251870754939863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5338611590159311</v>
+        <v>0.5349306554480442</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -8432,19 +8432,19 @@
         <v>224485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>207385</v>
+        <v>207027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241196</v>
+        <v>241864</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6674949185508909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6166511008617411</v>
+        <v>0.6155850032889846</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7171862140250971</v>
+        <v>0.7191731808588399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>377</v>
@@ -8453,19 +8453,19 @@
         <v>376757</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>351648</v>
+        <v>350597</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>399388</v>
+        <v>398804</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5753115575158736</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5369701821562736</v>
+        <v>0.535365078993819</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6098699673784851</v>
+        <v>0.6089777089184889</v>
       </c>
     </row>
     <row r="15">
@@ -8482,19 +8482,19 @@
         <v>69962</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>56139</v>
+        <v>56516</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>84714</v>
+        <v>84831</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2196172752497238</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.176224515288645</v>
+        <v>0.1774082844496778</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2659231514184265</v>
+        <v>0.2662899335639086</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -8503,19 +8503,19 @@
         <v>30421</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20821</v>
+        <v>20981</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42193</v>
+        <v>41828</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09045681199784104</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06191055300695565</v>
+        <v>0.06238667812001874</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1254602262307485</v>
+        <v>0.1243748302156389</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>107</v>
@@ -8524,19 +8524,19 @@
         <v>100384</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>83371</v>
+        <v>82094</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>117755</v>
+        <v>118612</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1532872231782902</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.12730899782325</v>
+        <v>0.1253582126552589</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1798126096076238</v>
+        <v>0.181121190680879</v>
       </c>
     </row>
     <row r="16">
@@ -8553,19 +8553,19 @@
         <v>7360</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3258</v>
+        <v>3410</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15200</v>
+        <v>14826</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02310369150773936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01022583944075881</v>
+        <v>0.01070540342510128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04771268174640976</v>
+        <v>0.04654048395917406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -8574,19 +8574,19 @@
         <v>6292</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2648</v>
+        <v>2585</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12965</v>
+        <v>13500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01871046032021852</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007875165435917129</v>
+        <v>0.007687845886347199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03855081783501942</v>
+        <v>0.04014120743485453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -8595,19 +8595,19 @@
         <v>13653</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7805</v>
+        <v>7735</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23997</v>
+        <v>23649</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0208475579658379</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01191760108905067</v>
+        <v>0.01181129773548113</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03664365391657093</v>
+        <v>0.03611173703274517</v>
       </c>
     </row>
     <row r="17">
@@ -8624,19 +8624,19 @@
         <v>88971</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74617</v>
+        <v>74480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104901</v>
+        <v>105047</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.279285430880761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2342290152260165</v>
+        <v>0.2337993355645512</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3292915897662745</v>
+        <v>0.3297518800901626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>77</v>
@@ -8645,19 +8645,19 @@
         <v>75111</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60686</v>
+        <v>60374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88943</v>
+        <v>91447</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2233378091310495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1804469682756465</v>
+        <v>0.1795194360348715</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2644688865826146</v>
+        <v>0.2719137509629061</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -8666,19 +8666,19 @@
         <v>164081</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143727</v>
+        <v>142699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>184679</v>
+        <v>185614</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2505536613399983</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2194727449067849</v>
+        <v>0.2179032872621234</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2820069123093442</v>
+        <v>0.2834347361663931</v>
       </c>
     </row>
     <row r="18">
@@ -8770,19 +8770,19 @@
         <v>129941</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112045</v>
+        <v>111750</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>149829</v>
+        <v>148812</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3512249562214666</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3028541553968501</v>
+        <v>0.3020554472265835</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4049817903916135</v>
+        <v>0.4022350717959542</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -8791,19 +8791,19 @@
         <v>226535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>206269</v>
+        <v>206393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>245502</v>
+        <v>248280</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5868800711824541</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5343776348823501</v>
+        <v>0.5346996271979249</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6360195341982551</v>
+        <v>0.6432153362896853</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>331</v>
@@ -8812,19 +8812,19 @@
         <v>356475</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>330578</v>
+        <v>328243</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>383858</v>
+        <v>383915</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4715515685834161</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4372938462124789</v>
+        <v>0.4342054057929081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5077743063135053</v>
+        <v>0.5078498477032896</v>
       </c>
     </row>
     <row r="20">
@@ -8841,19 +8841,19 @@
         <v>97819</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80899</v>
+        <v>82556</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116167</v>
+        <v>117812</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2644006993320583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2186680799080993</v>
+        <v>0.2231451801632624</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3139943256417667</v>
+        <v>0.3184427561467055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -8862,19 +8862,19 @@
         <v>50706</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38148</v>
+        <v>39450</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64807</v>
+        <v>65056</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1313643577136356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09882884582125732</v>
+        <v>0.1022036485000001</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1678942856653038</v>
+        <v>0.1685403904011439</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>147</v>
@@ -8883,19 +8883,19 @@
         <v>148525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>126362</v>
+        <v>127478</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>172564</v>
+        <v>171468</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1964717162899464</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1671539865736441</v>
+        <v>0.1686300510425602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.228271328906831</v>
+        <v>0.226821573812509</v>
       </c>
     </row>
     <row r="21">
@@ -8912,19 +8912,19 @@
         <v>9486</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3922</v>
+        <v>4639</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17736</v>
+        <v>16628</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0256399041388597</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01060068881238071</v>
+        <v>0.01253920200539095</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04793865733970928</v>
+        <v>0.0449462282112942</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -8933,19 +8933,19 @@
         <v>13173</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7002</v>
+        <v>6953</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22493</v>
+        <v>22042</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03412647297031599</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01813871100031533</v>
+        <v>0.0180142321295263</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05827301626344959</v>
+        <v>0.05710415964559361</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -8954,19 +8954,19 @@
         <v>22659</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15129</v>
+        <v>15278</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33772</v>
+        <v>34120</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02997318618213169</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02001294363065836</v>
+        <v>0.0202105159267334</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04467437487954461</v>
+        <v>0.04513404203726561</v>
       </c>
     </row>
     <row r="22">
@@ -8983,19 +8983,19 @@
         <v>132719</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>114007</v>
+        <v>114423</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>151486</v>
+        <v>153423</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3587344403076154</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3081559353470587</v>
+        <v>0.3092825759549487</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4094611821009712</v>
+        <v>0.4146982162587417</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -9004,19 +9004,19 @@
         <v>95584</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78583</v>
+        <v>79275</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>113007</v>
+        <v>113898</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2476290981335944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2035848014283718</v>
+        <v>0.2053764635622705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2927644870298787</v>
+        <v>0.2950735757981188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>211</v>
@@ -9025,19 +9025,19 @@
         <v>228303</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>204336</v>
+        <v>201027</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>253710</v>
+        <v>253531</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3020035289445058</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.270299250106329</v>
+        <v>0.2659222158749495</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3356120669022131</v>
+        <v>0.335375290735745</v>
       </c>
     </row>
     <row r="23">
@@ -9129,19 +9129,19 @@
         <v>81275</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67198</v>
+        <v>67008</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95682</v>
+        <v>95293</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3847855986680591</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3181410327310499</v>
+        <v>0.3172422051536801</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4529942101401719</v>
+        <v>0.4511513949962221</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>141</v>
@@ -9150,19 +9150,19 @@
         <v>140265</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>125182</v>
+        <v>125082</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>154023</v>
+        <v>153440</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6416885357942367</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5726882420895998</v>
+        <v>0.5722305369367063</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7046323292625464</v>
+        <v>0.7019642282680115</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>225</v>
@@ -9171,19 +9171,19 @@
         <v>221540</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>199379</v>
+        <v>201214</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>242864</v>
+        <v>241707</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5154384542340229</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4638783234904996</v>
+        <v>0.4681496004147046</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5650518526650815</v>
+        <v>0.5623592579089067</v>
       </c>
     </row>
     <row r="25">
@@ -9200,19 +9200,19 @@
         <v>44060</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32620</v>
+        <v>33393</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56396</v>
+        <v>57150</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2085965103320546</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1544366625155988</v>
+        <v>0.1580967186262765</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2669995194767781</v>
+        <v>0.2705693668696572</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -9221,19 +9221,19 @@
         <v>21679</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14176</v>
+        <v>13619</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32905</v>
+        <v>32032</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09917920167244532</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06485200962362209</v>
+        <v>0.06230527460806564</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.150535243472114</v>
+        <v>0.1465425113155921</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -9242,19 +9242,19 @@
         <v>65739</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52621</v>
+        <v>51868</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82734</v>
+        <v>82338</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1529502651600926</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.122427998852007</v>
+        <v>0.1206772993123733</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1924907143190981</v>
+        <v>0.1915702519077982</v>
       </c>
     </row>
     <row r="26">
@@ -9271,19 +9271,19 @@
         <v>6025</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2482</v>
+        <v>2428</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13492</v>
+        <v>12992</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02852337275479839</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01174913263552021</v>
+        <v>0.01149434092037147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06387593773144258</v>
+        <v>0.06150836384924101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -9305,19 +9305,19 @@
         <v>6025</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2454</v>
+        <v>2422</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12774</v>
+        <v>13386</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01401727118011505</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005709091205309232</v>
+        <v>0.005634316145393536</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0297213710372704</v>
+        <v>0.03114514518155226</v>
       </c>
     </row>
     <row r="27">
@@ -9334,19 +9334,19 @@
         <v>79862</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>66234</v>
+        <v>65509</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>95873</v>
+        <v>94939</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3780945182450879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3135787132479846</v>
+        <v>0.3101439252826356</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4538986861196889</v>
+        <v>0.4494772981279086</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>60</v>
@@ -9355,19 +9355,19 @@
         <v>56643</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.259132262533318</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>137</v>
@@ -9376,19 +9376,19 @@
         <v>136504</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>117495</v>
+        <v>116842</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>156822</v>
+        <v>156677</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3175940094257694</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2733652938066553</v>
+        <v>0.2718472669696262</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3648663205498276</v>
+        <v>0.3645271940575743</v>
       </c>
     </row>
     <row r="28">
@@ -9480,19 +9480,19 @@
         <v>123503</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>105682</v>
+        <v>109151</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>139295</v>
+        <v>139964</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4693755218322294</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4016445338924549</v>
+        <v>0.4148286787489828</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5293914859245594</v>
+        <v>0.5319351298227895</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>175</v>
@@ -9501,19 +9501,19 @@
         <v>183257</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>166750</v>
+        <v>167025</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>196877</v>
+        <v>198109</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6709897817000126</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6105495120839998</v>
+        <v>0.6115568511444012</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7208578307502999</v>
+        <v>0.7253690875833938</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>297</v>
@@ -9522,19 +9522,19 @@
         <v>306761</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>281649</v>
+        <v>282239</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>329243</v>
+        <v>327320</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5720610433934997</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5252320484162737</v>
+        <v>0.5263319456699643</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6139859932694419</v>
+        <v>0.6104008456916624</v>
       </c>
     </row>
     <row r="30">
@@ -9551,19 +9551,19 @@
         <v>50419</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38177</v>
+        <v>38513</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>63668</v>
+        <v>64646</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1916165473427031</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1450934320497048</v>
+        <v>0.1463694490236931</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2419712473734435</v>
+        <v>0.2456882500795147</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -9572,19 +9572,19 @@
         <v>16800</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10128</v>
+        <v>9873</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26681</v>
+        <v>27134</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06151101603997339</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03708309578028395</v>
+        <v>0.03614848910937155</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09769201236665018</v>
+        <v>0.09935041646109585</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>68</v>
@@ -9593,19 +9593,19 @@
         <v>67218</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>53526</v>
+        <v>53466</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>82386</v>
+        <v>83204</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.125351619710162</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09981725548105332</v>
+        <v>0.09970505911293494</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1536373818623652</v>
+        <v>0.1551621050944515</v>
       </c>
     </row>
     <row r="31">
@@ -9622,19 +9622,19 @@
         <v>3910</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8881</v>
+        <v>9016</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01486103153354879</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003776525752218443</v>
+        <v>0.00376837124638607</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03375128182984671</v>
+        <v>0.03426499929723253</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -9643,19 +9643,19 @@
         <v>8029</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3492</v>
+        <v>3560</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16328</v>
+        <v>15433</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02939630996285818</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01278592440783575</v>
+        <v>0.01303431026456471</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05978399869770264</v>
+        <v>0.05650893189833323</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -9664,19 +9664,19 @@
         <v>11939</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6350</v>
+        <v>6267</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>20269</v>
+        <v>21273</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02226409244566248</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01184183147319178</v>
+        <v>0.01168672688284528</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03779815719428324</v>
+        <v>0.03967070309342853</v>
       </c>
     </row>
     <row r="32">
@@ -9693,19 +9693,19 @@
         <v>85291</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>70745</v>
+        <v>71799</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>101222</v>
+        <v>101410</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3241468992915188</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2688667554742491</v>
+        <v>0.2728706071590024</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3846953324055301</v>
+        <v>0.385409520619967</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>64</v>
@@ -9714,19 +9714,19 @@
         <v>65029</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>52717</v>
+        <v>52300</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>80678</v>
+        <v>79681</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2381028922971559</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1930209916873011</v>
+        <v>0.1914957717620999</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2953977624105537</v>
+        <v>0.2917489688616332</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>146</v>
@@ -9735,19 +9735,19 @@
         <v>150320</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>131099</v>
+        <v>130558</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>171197</v>
+        <v>171990</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2803232444506758</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2444784693885176</v>
+        <v>0.243470495513659</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3192547843876081</v>
+        <v>0.3207338769683571</v>
       </c>
     </row>
     <row r="33">
@@ -9839,19 +9839,19 @@
         <v>322405</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>294338</v>
+        <v>298243</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>345811</v>
+        <v>352669</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4918558023824601</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4490373707906174</v>
+        <v>0.4549958405230066</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5275641828975425</v>
+        <v>0.5380268907096222</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>395</v>
@@ -9860,19 +9860,19 @@
         <v>427355</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>402209</v>
+        <v>399739</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>453342</v>
+        <v>452631</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6199482689039157</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5834702038389559</v>
+        <v>0.579887314043268</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6576474027755675</v>
+        <v>0.656615883932322</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>686</v>
@@ -9881,19 +9881,19 @@
         <v>749759</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>710552</v>
+        <v>708828</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>790335</v>
+        <v>790365</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5575142485756743</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5283598278502305</v>
+        <v>0.5270780267807568</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5876857683437063</v>
+        <v>0.5877085178401334</v>
       </c>
     </row>
     <row r="35">
@@ -9910,19 +9910,19 @@
         <v>130989</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>112059</v>
+        <v>110091</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>153274</v>
+        <v>151259</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1998353729676477</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1709551990967502</v>
+        <v>0.1679529993722727</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2338330309360781</v>
+        <v>0.2307582476591742</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>81</v>
@@ -9931,19 +9931,19 @@
         <v>87173</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>71350</v>
+        <v>71227</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>107016</v>
+        <v>105945</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1264585460654794</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1035046936145632</v>
+        <v>0.1033266643611011</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1552445038626152</v>
+        <v>0.1536912625271749</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>196</v>
@@ -9952,19 +9952,19 @@
         <v>218162</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>189326</v>
+        <v>191652</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>247522</v>
+        <v>248519</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1622234152013584</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.140781289456941</v>
+        <v>0.1425107898650657</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1840551864194953</v>
+        <v>0.1847968397940837</v>
       </c>
     </row>
     <row r="36">
@@ -9981,19 +9981,19 @@
         <v>20145</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12697</v>
+        <v>12670</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>30939</v>
+        <v>31195</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03073325769194708</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01937062567131677</v>
+        <v>0.01932878635941413</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04720049331967005</v>
+        <v>0.04759099239906598</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>23</v>
@@ -10002,19 +10002,19 @@
         <v>23504</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>15259</v>
+        <v>15356</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>33803</v>
+        <v>34046</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03409649902286412</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02213540999916907</v>
+        <v>0.02227669735316023</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04903671811969085</v>
+        <v>0.04939002748686493</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>41</v>
@@ -10023,19 +10023,19 @@
         <v>43649</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>31757</v>
+        <v>31768</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>57593</v>
+        <v>58336</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03245720919321528</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02361395445768512</v>
+        <v>0.02362226718550601</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04282581111767427</v>
+        <v>0.04337836306008974</v>
       </c>
     </row>
     <row r="37">
@@ -10052,19 +10052,19 @@
         <v>181947</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>159371</v>
+        <v>155647</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>207233</v>
+        <v>206708</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2775755669579452</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2431337666580611</v>
+        <v>0.2374534502425537</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3161510035370313</v>
+        <v>0.3153501236940117</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>145</v>
@@ -10073,19 +10073,19 @@
         <v>151308</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>127938</v>
+        <v>130483</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>172881</v>
+        <v>174363</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2194966860077407</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1855954674352384</v>
+        <v>0.1892866463597002</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.250792703384945</v>
+        <v>0.2529420169531076</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>300</v>
@@ -10094,19 +10094,19 @@
         <v>333255</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>298083</v>
+        <v>299117</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>363875</v>
+        <v>369813</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.247805127029752</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2216516012097033</v>
+        <v>0.2224209502735709</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2705740883311059</v>
+        <v>0.2749900012270998</v>
       </c>
     </row>
     <row r="38">
@@ -10198,19 +10198,19 @@
         <v>381908</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>351460</v>
+        <v>356354</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>409900</v>
+        <v>411951</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4905164823657376</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.451409187848159</v>
+        <v>0.4576962089331556</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5264698593319529</v>
+        <v>0.5291037172513846</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>476</v>
@@ -10219,19 +10219,19 @@
         <v>525338</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>498448</v>
+        <v>498525</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>553822</v>
+        <v>550258</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6358733011802912</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.6033255028134472</v>
+        <v>0.6034186139205538</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6703510881551515</v>
+        <v>0.6660372963182469</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>852</v>
@@ -10240,19 +10240,19 @@
         <v>907245</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>860891</v>
+        <v>867876</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>947471</v>
+        <v>947105</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5653499500772796</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5364642324866328</v>
+        <v>0.5408170246709668</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5904166230620984</v>
+        <v>0.5901883465017275</v>
       </c>
     </row>
     <row r="40">
@@ -10269,19 +10269,19 @@
         <v>140666</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>119622</v>
+        <v>120825</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>162608</v>
+        <v>164079</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1806686273924612</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1536410754606791</v>
+        <v>0.1551861125654602</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2088509916754545</v>
+        <v>0.210740787573221</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>75</v>
@@ -10290,19 +10290,19 @@
         <v>86541</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>68884</v>
+        <v>68225</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>105110</v>
+        <v>106885</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1047500042027435</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08337814022922126</v>
+        <v>0.0825800163178021</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1272263913091527</v>
+        <v>0.129374735576393</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>208</v>
@@ -10311,19 +10311,19 @@
         <v>227207</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>198410</v>
+        <v>198013</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>260210</v>
+        <v>258244</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1415837472780951</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1236394355509676</v>
+        <v>0.1233921146752816</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1621498515727097</v>
+        <v>0.1609249525741999</v>
       </c>
     </row>
     <row r="41">
@@ -10340,19 +10340,19 @@
         <v>20773</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>12921</v>
+        <v>12457</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>31515</v>
+        <v>31684</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02668065185878123</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01659568929538128</v>
+        <v>0.01599973278471831</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04047689075380388</v>
+        <v>0.04069435678527147</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -10361,19 +10361,19 @@
         <v>9658</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4256</v>
+        <v>4282</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17903</v>
+        <v>17754</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01168975568380774</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005151683881579689</v>
+        <v>0.005182953754336844</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0216700516235923</v>
+        <v>0.02148971388311098</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>29</v>
@@ -10382,19 +10382,19 @@
         <v>30431</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20725</v>
+        <v>20500</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>42463</v>
+        <v>43080</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01896294893967582</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01291489146338657</v>
+        <v>0.01277431561285581</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02646112506686404</v>
+        <v>0.02684548639994618</v>
       </c>
     </row>
     <row r="42">
@@ -10411,19 +10411,19 @@
         <v>235237</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>211515</v>
+        <v>208817</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>261538</v>
+        <v>260427</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3021342383830199</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2716666462255151</v>
+        <v>0.2682019204827729</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3359148437871403</v>
+        <v>0.3344886900857918</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>195</v>
@@ -10432,19 +10432,19 @@
         <v>204631</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>180531</v>
+        <v>182098</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>230655</v>
+        <v>229997</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2476869389331577</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2185164296894827</v>
+        <v>0.2204129228530847</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2791863836596647</v>
+        <v>0.2783910009526215</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>416</v>
@@ -10453,19 +10453,19 @@
         <v>439867</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>402945</v>
+        <v>404455</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>478462</v>
+        <v>477517</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2741033537049495</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2510950582169586</v>
+        <v>0.2520362743373661</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2981538805591506</v>
+        <v>0.2975648133644421</v>
       </c>
     </row>
     <row r="43">
@@ -10557,19 +10557,19 @@
         <v>1504736</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1450915</v>
+        <v>1448682</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1565541</v>
+        <v>1569214</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4435591641651775</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4276939505521336</v>
+        <v>0.4270358724905596</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4614828610967788</v>
+        <v>0.4625656026468977</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2073</v>
@@ -10578,19 +10578,19 @@
         <v>2227448</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2166548</v>
+        <v>2163005</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2293657</v>
+        <v>2288809</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6293820004551663</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6121744119064105</v>
+        <v>0.6111731160876189</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6480899461468816</v>
+        <v>0.6467200417595825</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3519</v>
@@ -10599,19 +10599,19 @@
         <v>3732184</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3646820</v>
+        <v>3642119</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3823369</v>
+        <v>3821386</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5384368402133998</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5261214922158147</v>
+        <v>0.5254432532434029</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5515920165910595</v>
+        <v>0.5513058967542152</v>
       </c>
     </row>
     <row r="45">
@@ -10628,19 +10628,19 @@
         <v>697944</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>647794</v>
+        <v>651839</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>742728</v>
+        <v>749015</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2057367532602741</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1909535785553582</v>
+        <v>0.1921459498809383</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2189378201665188</v>
+        <v>0.2207912818820682</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>365</v>
@@ -10649,19 +10649,19 @@
         <v>387179</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1094004155006001</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1041</v>
@@ -10670,19 +10670,19 @@
         <v>1085124</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1022461</v>
+        <v>1024257</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1147943</v>
+        <v>1155420</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1565492151292199</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1475089852695105</v>
+        <v>0.1477680454844669</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1656120306510051</v>
+        <v>0.1666907876674958</v>
       </c>
     </row>
     <row r="46">
@@ -10699,19 +10699,19 @@
         <v>93364</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>75035</v>
+        <v>75049</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>114060</v>
+        <v>114075</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02752138559501326</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02211833322008539</v>
+        <v>0.02212258499853472</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03362208984942767</v>
+        <v>0.03362652390663362</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>72</v>
@@ -10720,19 +10720,19 @@
         <v>74404</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>59806</v>
+        <v>59067</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>93822</v>
+        <v>92631</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02102331796683824</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01689850649786415</v>
+        <v>0.01668995911509733</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02651008258389173</v>
+        <v>0.02617368020891655</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>160</v>
@@ -10741,19 +10741,19 @@
         <v>167768</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>141838</v>
+        <v>144492</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>192867</v>
+        <v>196162</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02420359340286683</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02046280894665433</v>
+        <v>0.02084569549200303</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02782465253678657</v>
+        <v>0.02829997451364542</v>
       </c>
     </row>
     <row r="47">
@@ -10770,19 +10770,19 @@
         <v>1096370</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1038189</v>
+        <v>1038130</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1154637</v>
+        <v>1152168</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3231826969795352</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.306032476966597</v>
+        <v>0.3060150122681587</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3403585154711808</v>
+        <v>0.3396307694723886</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>823</v>
@@ -10791,19 +10791,19 @@
         <v>850072</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>797600</v>
+        <v>795827</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>902985</v>
+        <v>903719</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2401942660773953</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2253677320290722</v>
+        <v>0.2248667491576408</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2551452207169609</v>
+        <v>0.2553526379146115</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1842</v>
@@ -10812,19 +10812,19 @@
         <v>1946442</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1861219</v>
+        <v>1874671</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2019802</v>
+        <v>2033306</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2808103512545135</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2685153365394617</v>
+        <v>0.2704561020639381</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2913938707064448</v>
+        <v>0.2933421630511349</v>
       </c>
     </row>
     <row r="48">
